--- a/baseNueva.xlsx
+++ b/baseNueva.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,554 +438,608 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mes</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Cantidad</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Jan-20</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="C2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Feb-20</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>43890</v>
+      </c>
+      <c r="C3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Mar-20</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Jun-20</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="C5" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Jul-20</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="C6" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Aug-20</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="C7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Sep-20</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="C8" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Oct-20</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>44135</v>
+      </c>
+      <c r="C9" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Nov-20</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="C10" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Dec-20</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="C11" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Jan-21</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="C12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Feb-21</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>44255</v>
+      </c>
+      <c r="C13" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Mar-21</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="C14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Apr-21</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Jun-21</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="C16" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Jul-21</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>44408</v>
+      </c>
+      <c r="C17" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Sep-21</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="C18" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Oct-21</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C19" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Jan-22</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="C20" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Feb-22</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="C21" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Mar-22</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="C22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Apr-22</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>44681</v>
+      </c>
+      <c r="C23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>May-22</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="C24" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Jun-22</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="C25" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Jul-22</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>44773</v>
+      </c>
+      <c r="C26" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Aug-22</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="C27" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Sep-22</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="C28" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Oct-22</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="C29" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>Nov-22</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="C30" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Dec-22</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C31" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Jan-23</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="C32" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>Feb-23</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="C33" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>Mar-23</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="C34" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>Apr-23</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45046</v>
+      </c>
+      <c r="C35" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>May-23</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="C36" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Jun-23</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C37" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Jul-23</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="C38" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Aug-23</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="C39" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Sep-23</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C40" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>Oct-23</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C41" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>Nov-23</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C42" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>Dec-23</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45291</v>
+      </c>
+      <c r="C43" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>Jan-24</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C44" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>Feb-24</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C45" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>Mar-24</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C46" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>Apr-24</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C47" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>May-24</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="C48" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>Jun-24</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="C49" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>Jul-24</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="C50" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>Aug-24</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>45535</v>
+      </c>
+      <c r="C51" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Sep-24</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="C52" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Oct-24</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="C53" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Nov-24</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="C54" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Dec-24</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C55" t="n">
         <v>12</v>
       </c>
     </row>
